--- a/Forms/Efm03/efm03.xlsx
+++ b/Forms/Efm03/efm03.xlsx
@@ -8,12 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\e-mis\src\e-mis\Ecoba.Web.Api\Forms\Efm03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F81F646-245C-4D23-87F2-E450EB3FAD11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAD1507-DA5B-490E-80DA-852816B68A38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{99BB03EB-0BBB-4760-A339-0FAD76C13654}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="5" xr2:uid="{99BB03EB-0BBB-4760-A339-0FAD76C13654}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview_baseline" sheetId="1" r:id="rId1"/>
+    <sheet name="Overview_rebaseline" sheetId="2" r:id="rId2"/>
+    <sheet name="Overview_forecast" sheetId="3" r:id="rId3"/>
+    <sheet name="Production" sheetId="4" r:id="rId4"/>
+    <sheet name="Revenue" sheetId="5" r:id="rId5"/>
+    <sheet name="Cashin" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -25,38 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
-  <si>
-    <r>
-      <t xml:space="preserve">ECOBA VIETNAM (E&amp;C)_PRODUCTION - REVENUE - CASH IN REPORT </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>BASELINE/ REBASELINE/ FORECAST</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ECOBA VIỆT NAM (E&amp;C)_BÁO CÁO SẢN LƯỢNG - DOANH THU - TIỀN VỀ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>BASELINE/ REBASELINE/ FORECAST</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="72">
   <si>
     <t xml:space="preserve">Code: </t>
   </si>
@@ -148,20 +122,144 @@
     <t>Code - Name of project 1</t>
   </si>
   <si>
-    <t>Mã - Tên Dự án 1</t>
+    <t>ECOBA VIETNAM (E&amp;C)_PRODUCTION - REVENUE - CASH IN REPORT BASELINE</t>
+  </si>
+  <si>
+    <t>ECOBA VIỆT NAM (E&amp;C)_BÁO CÁO SẢN LƯỢNG - DOANH THU - TIỀN VỀ BASELINE</t>
+  </si>
+  <si>
+    <t>ECOBA VIETNAM (E&amp;C)_PRODUCTION - REVENUE - CASH IN REPORT REBASELINE</t>
+  </si>
+  <si>
+    <t>ECOBA VIỆT NAM (E&amp;C)_BÁO CÁO SẢN LƯỢNG - DOANH THU - TIỀN VỀ REBASELINE</t>
+  </si>
+  <si>
+    <t>ECOBA VIETNAM (E&amp;C)_PRODUCTION - REVENUE - CASH IN REPORT FORECAST</t>
+  </si>
+  <si>
+    <t>ECOBA VIỆT NAM (E&amp;C)_BÁO CÁO SẢN LƯỢNG - DOANH THU - TIỀN VỀ FORECAST</t>
+  </si>
+  <si>
+    <t>BASELINE</t>
+  </si>
+  <si>
+    <t>KẾ HOẠCH BAN ĐẦU</t>
+  </si>
+  <si>
+    <t>FORECAST</t>
+  </si>
+  <si>
+    <t>ECOBA VIETNAM (E&amp;C)_PRODUCTION GAP REPORT</t>
+  </si>
+  <si>
+    <t>ECOBA VIỆT NAM (E&amp;C)_BÁO CÁO GAP SẢN LƯỢNG</t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>Kế hoạch ban đầu</t>
+  </si>
+  <si>
+    <t>Baseline accumulated</t>
+  </si>
+  <si>
+    <t>Kế hoạch ban đầu lũy kế</t>
+  </si>
+  <si>
+    <t>Rebaseline</t>
+  </si>
+  <si>
+    <t>Kế hoạch điều chỉnh</t>
+  </si>
+  <si>
+    <t>Rebaseline accumulated</t>
+  </si>
+  <si>
+    <t>Kế hoạch điều chỉnh lũy kế</t>
+  </si>
+  <si>
+    <t>Forecast</t>
+  </si>
+  <si>
+    <t>Dự báo</t>
+  </si>
+  <si>
+    <t>Forecast accumulated</t>
+  </si>
+  <si>
+    <t>Dự báo lũy kế</t>
+  </si>
+  <si>
+    <t>Gap rebaseline</t>
+  </si>
+  <si>
+    <t>Gap Kế hoạch điều chỉnh</t>
+  </si>
+  <si>
+    <t>Gap rebaseline accumulated</t>
+  </si>
+  <si>
+    <t>Gap Kế hoạch điều chỉnh lũy kế</t>
+  </si>
+  <si>
+    <t>Gap rebaseline (%)</t>
+  </si>
+  <si>
+    <t>Gap Kế hoạch điều chỉnh (%)</t>
+  </si>
+  <si>
+    <t>Gap rebaseline accumulated (%)</t>
+  </si>
+  <si>
+    <t>Gap Kế hoạch điều chỉnh lũy kế (%)</t>
+  </si>
+  <si>
+    <t>PRODUCTION</t>
+  </si>
+  <si>
+    <t>SẢN LƯỢNG</t>
+  </si>
+  <si>
+    <t>ECOBA VIETNAM (E&amp;C)_REVENUE GAP REPORT</t>
+  </si>
+  <si>
+    <t>ECOBA VIỆT NAM (E&amp;C)_BÁO CÁO GAP DOANH THU</t>
+  </si>
+  <si>
+    <t>REVENUE</t>
+  </si>
+  <si>
+    <t>DOANH THU</t>
+  </si>
+  <si>
+    <t>ECOBA VIETNAM (E&amp;C)_CASHIN GAP REPORT</t>
+  </si>
+  <si>
+    <t>ECOBA VIỆT NAM (E&amp;C)_BÁO CÁO GAP TIỀN VỀ</t>
+  </si>
+  <si>
+    <t>CASHIN</t>
+  </si>
+  <si>
+    <t>TIỀN VỀ</t>
+  </si>
+  <si>
+    <t>DỰ BÁO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0\A;[Red]0\A"/>
     <numFmt numFmtId="166" formatCode="mm/yyyy"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,13 +283,6 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <i/>
       <sz val="16"/>
       <color rgb="FF000000"/>
@@ -211,14 +302,6 @@
       <i/>
       <sz val="16"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -410,94 +493,95 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="12" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="7"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="7"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="14" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="12" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -818,8 +902,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E75BB5B-7DBA-4AEA-9530-2FEBECE0774D}">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -834,7 +919,7 @@
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -842,7 +927,7 @@
     </row>
     <row r="2" spans="1:16" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="4"/>
@@ -850,7 +935,7 @@
     </row>
     <row r="3" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -858,7 +943,7 @@
     </row>
     <row r="4" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
@@ -866,7 +951,7 @@
     </row>
     <row r="5" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
@@ -880,45 +965,45 @@
     </row>
     <row r="7" spans="1:16" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:16" s="14" customFormat="1" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D8" s="13"/>
-      <c r="E8" s="46">
+      <c r="E8" s="47">
         <v>2020</v>
       </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
     </row>
     <row r="9" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="17">
@@ -960,11 +1045,11 @@
     </row>
     <row r="10" spans="1:16" s="22" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="18" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="21"/>
@@ -982,11 +1067,11 @@
     </row>
     <row r="11" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="25"/>
@@ -1005,11 +1090,11 @@
     <row r="12" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="27"/>
       <c r="B12" s="28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="29" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E12" s="30"/>
       <c r="F12" s="30"/>
@@ -1027,11 +1112,11 @@
     <row r="13" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="31"/>
       <c r="B13" s="32" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="33" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E13" s="34"/>
       <c r="F13" s="34"/>
@@ -1049,11 +1134,11 @@
     <row r="14" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="31"/>
       <c r="B14" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="33" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
@@ -1071,11 +1156,11 @@
     <row r="15" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="31"/>
       <c r="B15" s="32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15" s="33"/>
       <c r="D15" s="33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E15" s="35"/>
       <c r="F15" s="35"/>
@@ -1093,11 +1178,11 @@
     <row r="16" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="31"/>
       <c r="B16" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16" s="34"/>
       <c r="F16" s="34"/>
@@ -1115,11 +1200,11 @@
     <row r="17" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="31"/>
       <c r="B17" s="32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="33" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E17" s="35"/>
       <c r="F17" s="35"/>
@@ -1137,11 +1222,11 @@
     <row r="18" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="31"/>
       <c r="B18" s="32" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18" s="33"/>
       <c r="D18" s="33" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E18" s="35">
         <f>E16-E15</f>
@@ -1195,11 +1280,11 @@
     <row r="19" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="31"/>
       <c r="B19" s="32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C19" s="33"/>
       <c r="D19" s="33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E19" s="35">
         <f>E17-E16</f>
@@ -1253,12 +1338,10 @@
     <row r="20" spans="1:16" s="40" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="36"/>
       <c r="B20" s="37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C20" s="38"/>
-      <c r="D20" s="38" t="s">
-        <v>32</v>
-      </c>
+      <c r="D20" s="38"/>
       <c r="E20" s="39"/>
       <c r="F20" s="39"/>
       <c r="G20" s="39"/>
@@ -1275,11 +1358,11 @@
     <row r="21" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="31"/>
       <c r="B21" s="28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="29" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E21" s="30"/>
       <c r="F21" s="30"/>
@@ -1297,11 +1380,11 @@
     <row r="22" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="31"/>
       <c r="B22" s="32" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C22" s="33"/>
       <c r="D22" s="33" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E22" s="34"/>
       <c r="F22" s="34"/>
@@ -1319,11 +1402,11 @@
     <row r="23" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="31"/>
       <c r="B23" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C23" s="33"/>
       <c r="D23" s="33" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E23" s="35"/>
       <c r="F23" s="35"/>
@@ -1341,11 +1424,11 @@
     <row r="24" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="31"/>
       <c r="B24" s="32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C24" s="33"/>
       <c r="D24" s="33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E24" s="35"/>
       <c r="F24" s="35"/>
@@ -1363,11 +1446,11 @@
     <row r="25" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="31"/>
       <c r="B25" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C25" s="33"/>
       <c r="D25" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E25" s="34"/>
       <c r="F25" s="34"/>
@@ -1385,11 +1468,11 @@
     <row r="26" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="31"/>
       <c r="B26" s="32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C26" s="33"/>
       <c r="D26" s="33" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E26" s="35"/>
       <c r="F26" s="35"/>
@@ -1407,11 +1490,11 @@
     <row r="27" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="31"/>
       <c r="B27" s="32" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C27" s="33"/>
       <c r="D27" s="33" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E27" s="35">
         <f>E25-E24</f>
@@ -1465,11 +1548,11 @@
     <row r="28" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="31"/>
       <c r="B28" s="32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C28" s="33"/>
       <c r="D28" s="33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E28" s="35">
         <f>E26-E25</f>
@@ -1558,6 +1641,4469 @@
     <row r="40" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E8:P8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE1A13D-1B1B-47C9-A71B-22118127C773}">
+  <dimension ref="A1:P40"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.58203125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="32.58203125" style="26" customWidth="1"/>
+    <col min="3" max="3" width="4.58203125" style="41" customWidth="1"/>
+    <col min="4" max="4" width="32.58203125" style="41" customWidth="1"/>
+    <col min="5" max="16" width="12.58203125" style="26" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:16" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="47">
+        <v>2020</v>
+      </c>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+    </row>
+    <row r="9" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17">
+        <v>43556</v>
+      </c>
+      <c r="F9" s="17">
+        <v>43586</v>
+      </c>
+      <c r="G9" s="17">
+        <v>43617</v>
+      </c>
+      <c r="H9" s="17">
+        <v>43647</v>
+      </c>
+      <c r="I9" s="17">
+        <v>43678</v>
+      </c>
+      <c r="J9" s="17">
+        <v>43709</v>
+      </c>
+      <c r="K9" s="17">
+        <v>43739</v>
+      </c>
+      <c r="L9" s="17">
+        <v>43770</v>
+      </c>
+      <c r="M9" s="17">
+        <v>43800</v>
+      </c>
+      <c r="N9" s="17">
+        <v>43831</v>
+      </c>
+      <c r="O9" s="17">
+        <v>43862</v>
+      </c>
+      <c r="P9" s="17">
+        <v>43891</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="22" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+    </row>
+    <row r="12" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="27"/>
+      <c r="B12" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+    </row>
+    <row r="13" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="31"/>
+      <c r="B13" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+    </row>
+    <row r="14" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="31"/>
+      <c r="B14" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+    </row>
+    <row r="15" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="31"/>
+      <c r="B15" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+    </row>
+    <row r="16" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="31"/>
+      <c r="B16" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+    </row>
+    <row r="17" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="31"/>
+      <c r="B17" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+    </row>
+    <row r="18" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="31"/>
+      <c r="B18" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="35">
+        <f>E16-E15</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="35">
+        <f t="shared" ref="F18:P19" si="0">F16-F15</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="31"/>
+      <c r="B19" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="35">
+        <f>E17-E16</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="40" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="36"/>
+      <c r="B20" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+    </row>
+    <row r="21" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="31"/>
+      <c r="B21" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+    </row>
+    <row r="22" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="31"/>
+      <c r="B22" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+    </row>
+    <row r="23" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="31"/>
+      <c r="B23" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+    </row>
+    <row r="24" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="31"/>
+      <c r="B24" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+    </row>
+    <row r="25" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="31"/>
+      <c r="B25" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+    </row>
+    <row r="26" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="31"/>
+      <c r="B26" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+    </row>
+    <row r="27" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="31"/>
+      <c r="B27" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="35">
+        <f>E25-E24</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="35">
+        <f t="shared" ref="F27:P28" si="1">F25-F24</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="31"/>
+      <c r="B28" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="35">
+        <f>E26-E25</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="42" customFormat="1" ht="15.5" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+    </row>
+    <row r="34" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+    </row>
+    <row r="35" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+    </row>
+    <row r="36" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C36" s="9"/>
+      <c r="D36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+    </row>
+    <row r="37" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+    </row>
+    <row r="39" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E8:P8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3A5FB98-A2C9-4D48-8768-EB4AF26CE35C}">
+  <dimension ref="A1:P40"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.58203125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="32.58203125" style="26" customWidth="1"/>
+    <col min="3" max="3" width="4.58203125" style="41" customWidth="1"/>
+    <col min="4" max="4" width="32.58203125" style="41" customWidth="1"/>
+    <col min="5" max="16" width="12.58203125" style="26" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:16" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="47">
+        <v>2020</v>
+      </c>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+    </row>
+    <row r="9" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17">
+        <v>43556</v>
+      </c>
+      <c r="F9" s="17">
+        <v>43586</v>
+      </c>
+      <c r="G9" s="17">
+        <v>43617</v>
+      </c>
+      <c r="H9" s="17">
+        <v>43647</v>
+      </c>
+      <c r="I9" s="17">
+        <v>43678</v>
+      </c>
+      <c r="J9" s="17">
+        <v>43709</v>
+      </c>
+      <c r="K9" s="17">
+        <v>43739</v>
+      </c>
+      <c r="L9" s="17">
+        <v>43770</v>
+      </c>
+      <c r="M9" s="17">
+        <v>43800</v>
+      </c>
+      <c r="N9" s="17">
+        <v>43831</v>
+      </c>
+      <c r="O9" s="17">
+        <v>43862</v>
+      </c>
+      <c r="P9" s="17">
+        <v>43891</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="22" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+    </row>
+    <row r="12" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="27"/>
+      <c r="B12" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+    </row>
+    <row r="13" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="31"/>
+      <c r="B13" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+    </row>
+    <row r="14" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="31"/>
+      <c r="B14" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+    </row>
+    <row r="15" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="31"/>
+      <c r="B15" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+    </row>
+    <row r="16" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="31"/>
+      <c r="B16" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+    </row>
+    <row r="17" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="31"/>
+      <c r="B17" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+    </row>
+    <row r="18" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="31"/>
+      <c r="B18" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="35">
+        <f>E16-E15</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="35">
+        <f t="shared" ref="F18:P19" si="0">F16-F15</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="31"/>
+      <c r="B19" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="35">
+        <f>E17-E16</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="40" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="36"/>
+      <c r="B20" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+    </row>
+    <row r="21" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="31"/>
+      <c r="B21" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+    </row>
+    <row r="22" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="31"/>
+      <c r="B22" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+    </row>
+    <row r="23" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="31"/>
+      <c r="B23" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+    </row>
+    <row r="24" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="31"/>
+      <c r="B24" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+    </row>
+    <row r="25" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="31"/>
+      <c r="B25" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+    </row>
+    <row r="26" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="31"/>
+      <c r="B26" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+    </row>
+    <row r="27" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="31"/>
+      <c r="B27" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="35">
+        <f>E25-E24</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="35">
+        <f t="shared" ref="F27:P28" si="1">F25-F24</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="31"/>
+      <c r="B28" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="35">
+        <f>E26-E25</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="42" customFormat="1" ht="15.5" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+    </row>
+    <row r="34" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+    </row>
+    <row r="35" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+    </row>
+    <row r="36" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C36" s="9"/>
+      <c r="D36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+    </row>
+    <row r="37" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+    </row>
+    <row r="39" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E8:P8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B83B02-9DC9-4269-8207-CC7743470DFC}">
+  <dimension ref="A1:P44"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="4" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.58203125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="32.58203125" style="26" customWidth="1"/>
+    <col min="3" max="3" width="4.58203125" style="41" customWidth="1"/>
+    <col min="4" max="4" width="34.58203125" style="41" customWidth="1"/>
+    <col min="5" max="16" width="12.58203125" style="26" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:16" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="47">
+        <v>2020</v>
+      </c>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+    </row>
+    <row r="9" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17">
+        <v>43556</v>
+      </c>
+      <c r="F9" s="17">
+        <v>43586</v>
+      </c>
+      <c r="G9" s="17">
+        <v>43617</v>
+      </c>
+      <c r="H9" s="17">
+        <v>43647</v>
+      </c>
+      <c r="I9" s="17">
+        <v>43678</v>
+      </c>
+      <c r="J9" s="17">
+        <v>43709</v>
+      </c>
+      <c r="K9" s="17">
+        <v>43739</v>
+      </c>
+      <c r="L9" s="17">
+        <v>43770</v>
+      </c>
+      <c r="M9" s="17">
+        <v>43800</v>
+      </c>
+      <c r="N9" s="17">
+        <v>43831</v>
+      </c>
+      <c r="O9" s="17">
+        <v>43862</v>
+      </c>
+      <c r="P9" s="17">
+        <v>43891</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="22" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+    </row>
+    <row r="12" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="27"/>
+      <c r="B12" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+    </row>
+    <row r="13" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="31"/>
+      <c r="B13" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+    </row>
+    <row r="14" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="31"/>
+      <c r="B14" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+    </row>
+    <row r="15" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="31"/>
+      <c r="B15" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+    </row>
+    <row r="16" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="31"/>
+      <c r="B16" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+    </row>
+    <row r="17" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="31"/>
+      <c r="B17" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+    </row>
+    <row r="18" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="31"/>
+      <c r="B18" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="35">
+        <f>E14-E16</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="35">
+        <f t="shared" ref="F18:P18" si="0">F14-F16</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="31"/>
+      <c r="B19" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="35">
+        <f>E15-E17</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="35">
+        <f t="shared" ref="F19:P19" si="1">F15-F17</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="31"/>
+      <c r="B20" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="46">
+        <f>IF(ISERROR(E18/E14),0,E18/E14)</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="46">
+        <f t="shared" ref="F20:P20" si="2">IF(ISERROR(F18/F14),0,F18/F14)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="31"/>
+      <c r="B21" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="46">
+        <f>IF(ISERROR(E19/E15),0,E19/E15)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="46">
+        <f t="shared" ref="F21:P21" si="3">IF(ISERROR(F19/F15),0,F19/F15)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="40" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="36"/>
+      <c r="B22" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+    </row>
+    <row r="23" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="31"/>
+      <c r="B23" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+    </row>
+    <row r="24" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="31"/>
+      <c r="B24" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+    </row>
+    <row r="25" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="31"/>
+      <c r="B25" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+    </row>
+    <row r="26" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="31"/>
+      <c r="B26" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+    </row>
+    <row r="27" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="31"/>
+      <c r="B27" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+    </row>
+    <row r="28" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="31"/>
+      <c r="B28" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+    </row>
+    <row r="29" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="31"/>
+      <c r="B29" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="35">
+        <f>E25-E27</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="35">
+        <f t="shared" ref="F29:P29" si="4">F25-F27</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="31"/>
+      <c r="B30" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="35">
+        <f>E26-E28</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="35">
+        <f t="shared" ref="F30:P30" si="5">F26-F28</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="31"/>
+      <c r="B31" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="46">
+        <f>IF(ISERROR(E29/E25),0,E29/E25)</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="46">
+        <f t="shared" ref="F31:P31" si="6">IF(ISERROR(F29/F25),0,F29/F25)</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="31"/>
+      <c r="B32" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="46">
+        <f>IF(ISERROR(E30/E26),0,E30/E26)</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="46">
+        <f t="shared" ref="F32:P32" si="7">IF(ISERROR(F30/F26),0,F30/F26)</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13" s="42" customFormat="1" ht="15.5" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+    </row>
+    <row r="37" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+    </row>
+    <row r="39" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C40" s="9"/>
+      <c r="D40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43"/>
+    </row>
+    <row r="41" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+    </row>
+    <row r="43" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+    </row>
+    <row r="44" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E8:P8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3904B107-2FDE-4592-BBDB-B1F2D7E06DCF}">
+  <dimension ref="A1:P44"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.58203125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="32.58203125" style="26" customWidth="1"/>
+    <col min="3" max="3" width="4.58203125" style="41" customWidth="1"/>
+    <col min="4" max="4" width="34.58203125" style="41" customWidth="1"/>
+    <col min="5" max="16" width="12.58203125" style="26" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:16" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="47">
+        <v>2020</v>
+      </c>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+    </row>
+    <row r="9" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17">
+        <v>43556</v>
+      </c>
+      <c r="F9" s="17">
+        <v>43586</v>
+      </c>
+      <c r="G9" s="17">
+        <v>43617</v>
+      </c>
+      <c r="H9" s="17">
+        <v>43647</v>
+      </c>
+      <c r="I9" s="17">
+        <v>43678</v>
+      </c>
+      <c r="J9" s="17">
+        <v>43709</v>
+      </c>
+      <c r="K9" s="17">
+        <v>43739</v>
+      </c>
+      <c r="L9" s="17">
+        <v>43770</v>
+      </c>
+      <c r="M9" s="17">
+        <v>43800</v>
+      </c>
+      <c r="N9" s="17">
+        <v>43831</v>
+      </c>
+      <c r="O9" s="17">
+        <v>43862</v>
+      </c>
+      <c r="P9" s="17">
+        <v>43891</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="22" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+    </row>
+    <row r="12" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="27"/>
+      <c r="B12" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+    </row>
+    <row r="13" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="31"/>
+      <c r="B13" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+    </row>
+    <row r="14" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="31"/>
+      <c r="B14" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+    </row>
+    <row r="15" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="31"/>
+      <c r="B15" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+    </row>
+    <row r="16" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="31"/>
+      <c r="B16" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+    </row>
+    <row r="17" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="31"/>
+      <c r="B17" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+    </row>
+    <row r="18" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="31"/>
+      <c r="B18" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="35">
+        <f>E14-E16</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="35">
+        <f t="shared" ref="F18:P19" si="0">F14-F16</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="31"/>
+      <c r="B19" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="35">
+        <f>E15-E17</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="31"/>
+      <c r="B20" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="46">
+        <f>IF(ISERROR(E18/E14),0,E18/E14)</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="46">
+        <f t="shared" ref="F20:P21" si="1">IF(ISERROR(F18/F14),0,F18/F14)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="31"/>
+      <c r="B21" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="46">
+        <f>IF(ISERROR(E19/E15),0,E19/E15)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="40" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="36"/>
+      <c r="B22" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+    </row>
+    <row r="23" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="31"/>
+      <c r="B23" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+    </row>
+    <row r="24" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="31"/>
+      <c r="B24" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+    </row>
+    <row r="25" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="31"/>
+      <c r="B25" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+    </row>
+    <row r="26" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="31"/>
+      <c r="B26" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+    </row>
+    <row r="27" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="31"/>
+      <c r="B27" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+    </row>
+    <row r="28" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="31"/>
+      <c r="B28" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+    </row>
+    <row r="29" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="31"/>
+      <c r="B29" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="35">
+        <f>E25-E27</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="35">
+        <f t="shared" ref="F29:P30" si="2">F25-F27</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="31"/>
+      <c r="B30" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="35">
+        <f>E26-E28</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="31"/>
+      <c r="B31" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="46">
+        <f>IF(ISERROR(E29/E25),0,E29/E25)</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="46">
+        <f t="shared" ref="F31:P32" si="3">IF(ISERROR(F29/F25),0,F29/F25)</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="31"/>
+      <c r="B32" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="46">
+        <f>IF(ISERROR(E30/E26),0,E30/E26)</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13" s="42" customFormat="1" ht="15.5" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+    </row>
+    <row r="37" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+    </row>
+    <row r="39" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C40" s="9"/>
+      <c r="D40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43"/>
+    </row>
+    <row r="41" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+    </row>
+    <row r="43" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+    </row>
+    <row r="44" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E8:P8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{479F49D0-EC80-4E4A-9152-7A9D61551608}">
+  <dimension ref="A1:P44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.58203125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="32.58203125" style="26" customWidth="1"/>
+    <col min="3" max="3" width="4.58203125" style="41" customWidth="1"/>
+    <col min="4" max="4" width="34.58203125" style="41" customWidth="1"/>
+    <col min="5" max="16" width="12.58203125" style="26" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:16" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="47">
+        <v>2020</v>
+      </c>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+    </row>
+    <row r="9" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17">
+        <v>43556</v>
+      </c>
+      <c r="F9" s="17">
+        <v>43586</v>
+      </c>
+      <c r="G9" s="17">
+        <v>43617</v>
+      </c>
+      <c r="H9" s="17">
+        <v>43647</v>
+      </c>
+      <c r="I9" s="17">
+        <v>43678</v>
+      </c>
+      <c r="J9" s="17">
+        <v>43709</v>
+      </c>
+      <c r="K9" s="17">
+        <v>43739</v>
+      </c>
+      <c r="L9" s="17">
+        <v>43770</v>
+      </c>
+      <c r="M9" s="17">
+        <v>43800</v>
+      </c>
+      <c r="N9" s="17">
+        <v>43831</v>
+      </c>
+      <c r="O9" s="17">
+        <v>43862</v>
+      </c>
+      <c r="P9" s="17">
+        <v>43891</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="22" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+    </row>
+    <row r="12" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="27"/>
+      <c r="B12" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+    </row>
+    <row r="13" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="31"/>
+      <c r="B13" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+    </row>
+    <row r="14" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="31"/>
+      <c r="B14" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+    </row>
+    <row r="15" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="31"/>
+      <c r="B15" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+    </row>
+    <row r="16" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="31"/>
+      <c r="B16" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+    </row>
+    <row r="17" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="31"/>
+      <c r="B17" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+    </row>
+    <row r="18" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="31"/>
+      <c r="B18" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="35">
+        <f>E14-E16</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="35">
+        <f t="shared" ref="F18:P19" si="0">F14-F16</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="31"/>
+      <c r="B19" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="35">
+        <f>E15-E17</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="31"/>
+      <c r="B20" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="46">
+        <f>IF(ISERROR(E18/E14),0,E18/E14)</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="46">
+        <f t="shared" ref="F20:P21" si="1">IF(ISERROR(F18/F14),0,F18/F14)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="31"/>
+      <c r="B21" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="46">
+        <f>IF(ISERROR(E19/E15),0,E19/E15)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="40" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="36"/>
+      <c r="B22" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+    </row>
+    <row r="23" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="31"/>
+      <c r="B23" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+    </row>
+    <row r="24" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="31"/>
+      <c r="B24" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+    </row>
+    <row r="25" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="31"/>
+      <c r="B25" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+    </row>
+    <row r="26" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="31"/>
+      <c r="B26" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+    </row>
+    <row r="27" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="31"/>
+      <c r="B27" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+    </row>
+    <row r="28" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="31"/>
+      <c r="B28" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+    </row>
+    <row r="29" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="31"/>
+      <c r="B29" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="35">
+        <f>E25-E27</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="35">
+        <f t="shared" ref="F29:P30" si="2">F25-F27</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="31"/>
+      <c r="B30" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="35">
+        <f>E26-E28</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="31"/>
+      <c r="B31" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="46">
+        <f>IF(ISERROR(E29/E25),0,E29/E25)</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="46">
+        <f t="shared" ref="F31:P32" si="3">IF(ISERROR(F29/F25),0,F29/F25)</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="31"/>
+      <c r="B32" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="46">
+        <f>IF(ISERROR(E30/E26),0,E30/E26)</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13" s="42" customFormat="1" ht="15.5" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+    </row>
+    <row r="37" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+    </row>
+    <row r="39" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C40" s="9"/>
+      <c r="D40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43"/>
+    </row>
+    <row r="41" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+    </row>
+    <row r="43" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+    </row>
+    <row r="44" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Forms/Efm03/efm03.xlsx
+++ b/Forms/Efm03/efm03.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\e-mis\src\e-mis\Ecoba.Web.Api\Forms\Efm03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAD1507-DA5B-490E-80DA-852816B68A38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4964109C-EAE1-45C2-A2F3-591E775B21C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="5" xr2:uid="{99BB03EB-0BBB-4760-A339-0FAD76C13654}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="711" firstSheet="1" activeTab="7" xr2:uid="{99BB03EB-0BBB-4760-A339-0FAD76C13654}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview_baseline" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="Production" sheetId="4" r:id="rId4"/>
     <sheet name="Revenue" sheetId="5" r:id="rId5"/>
     <sheet name="Cashin" sheetId="6" r:id="rId6"/>
+    <sheet name="Uninvoiced_workdone" sheetId="7" r:id="rId7"/>
+    <sheet name="Account_receivables" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="80">
   <si>
     <t xml:space="preserve">Code: </t>
   </si>
@@ -246,6 +248,30 @@
   </si>
   <si>
     <t>DỰ BÁO</t>
+  </si>
+  <si>
+    <t>ECOBA VIETNAM (E&amp;C)_UNINVOICED WORKDONE GAP REPORT</t>
+  </si>
+  <si>
+    <t>ECOBA VIỆT NAM (E&amp;C)_BÁO CÁO GAP TỒN KHO</t>
+  </si>
+  <si>
+    <t>UNINVOICED WORKDONE</t>
+  </si>
+  <si>
+    <t>TỒN KHO</t>
+  </si>
+  <si>
+    <t>ECOBA VIETNAM (E&amp;C)_ACCOUNT RECEIVABLES GAP REPORT</t>
+  </si>
+  <si>
+    <t>ECOBA VIỆT NAM (E&amp;C)_BÁO CÁO GAP PHẢI THU</t>
+  </si>
+  <si>
+    <t>ACCOUNT RECEIVABLES</t>
+  </si>
+  <si>
+    <t>PHẢI THU</t>
   </si>
 </sst>
 </file>
@@ -904,20 +930,20 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D20" sqref="D20"/>
+      <selection pane="topRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.58203125" style="26" customWidth="1"/>
-    <col min="2" max="2" width="32.58203125" style="26" customWidth="1"/>
-    <col min="3" max="3" width="4.58203125" style="41" customWidth="1"/>
-    <col min="4" max="4" width="32.58203125" style="41" customWidth="1"/>
-    <col min="5" max="16" width="12.58203125" style="26" customWidth="1"/>
+    <col min="1" max="1" width="4.59765625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="32.59765625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="4.59765625" style="41" customWidth="1"/>
+    <col min="4" max="4" width="32.59765625" style="41" customWidth="1"/>
+    <col min="5" max="16" width="12.59765625" style="26" customWidth="1"/>
     <col min="17" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -925,7 +951,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -933,7 +959,7 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -941,7 +967,7 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -949,7 +975,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -957,13 +983,13 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:16" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" s="10" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
@@ -973,7 +999,7 @@
       </c>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
@@ -997,7 +1023,7 @@
       <c r="O8" s="47"/>
       <c r="P8" s="47"/>
     </row>
-    <row r="9" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
@@ -1043,7 +1069,7 @@
         <v>43891</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="22" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>36</v>
       </c>
@@ -1065,7 +1091,7 @@
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
     </row>
-    <row r="11" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
         <v>11</v>
       </c>
@@ -1087,7 +1113,7 @@
       <c r="O11" s="25"/>
       <c r="P11" s="25"/>
     </row>
-    <row r="12" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="27"/>
       <c r="B12" s="28" t="s">
         <v>13</v>
@@ -1109,7 +1135,7 @@
       <c r="O12" s="30"/>
       <c r="P12" s="30"/>
     </row>
-    <row r="13" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="31"/>
       <c r="B13" s="32" t="s">
         <v>15</v>
@@ -1131,7 +1157,7 @@
       <c r="O13" s="34"/>
       <c r="P13" s="34"/>
     </row>
-    <row r="14" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="31"/>
       <c r="B14" s="32" t="s">
         <v>17</v>
@@ -1153,7 +1179,7 @@
       <c r="O14" s="35"/>
       <c r="P14" s="35"/>
     </row>
-    <row r="15" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
       <c r="B15" s="32" t="s">
         <v>19</v>
@@ -1175,7 +1201,7 @@
       <c r="O15" s="35"/>
       <c r="P15" s="35"/>
     </row>
-    <row r="16" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="31"/>
       <c r="B16" s="32" t="s">
         <v>21</v>
@@ -1197,7 +1223,7 @@
       <c r="O16" s="34"/>
       <c r="P16" s="34"/>
     </row>
-    <row r="17" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="31"/>
       <c r="B17" s="32" t="s">
         <v>23</v>
@@ -1219,7 +1245,7 @@
       <c r="O17" s="35"/>
       <c r="P17" s="35"/>
     </row>
-    <row r="18" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="31"/>
       <c r="B18" s="32" t="s">
         <v>25</v>
@@ -1277,7 +1303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="31"/>
       <c r="B19" s="32" t="s">
         <v>27</v>
@@ -1335,7 +1361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="40" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" s="40" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A20" s="36"/>
       <c r="B20" s="37" t="s">
         <v>29</v>
@@ -1355,7 +1381,7 @@
       <c r="O20" s="39"/>
       <c r="P20" s="39"/>
     </row>
-    <row r="21" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="31"/>
       <c r="B21" s="28" t="s">
         <v>13</v>
@@ -1377,7 +1403,7 @@
       <c r="O21" s="30"/>
       <c r="P21" s="30"/>
     </row>
-    <row r="22" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="31"/>
       <c r="B22" s="32" t="s">
         <v>15</v>
@@ -1399,7 +1425,7 @@
       <c r="O22" s="34"/>
       <c r="P22" s="34"/>
     </row>
-    <row r="23" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="31"/>
       <c r="B23" s="32" t="s">
         <v>17</v>
@@ -1421,7 +1447,7 @@
       <c r="O23" s="35"/>
       <c r="P23" s="35"/>
     </row>
-    <row r="24" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="31"/>
       <c r="B24" s="32" t="s">
         <v>19</v>
@@ -1443,7 +1469,7 @@
       <c r="O24" s="35"/>
       <c r="P24" s="35"/>
     </row>
-    <row r="25" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="31"/>
       <c r="B25" s="32" t="s">
         <v>21</v>
@@ -1465,7 +1491,7 @@
       <c r="O25" s="34"/>
       <c r="P25" s="34"/>
     </row>
-    <row r="26" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="31"/>
       <c r="B26" s="32" t="s">
         <v>23</v>
@@ -1487,7 +1513,7 @@
       <c r="O26" s="35"/>
       <c r="P26" s="35"/>
     </row>
-    <row r="27" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="31"/>
       <c r="B27" s="32" t="s">
         <v>25</v>
@@ -1545,7 +1571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="31"/>
       <c r="B28" s="32" t="s">
         <v>27</v>
@@ -1603,42 +1629,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="42" customFormat="1" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" s="42" customFormat="1" ht="16.2" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
     </row>
-    <row r="33" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
     </row>
-    <row r="34" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
     </row>
-    <row r="35" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
     </row>
-    <row r="36" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:13" s="8" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
       <c r="C36" s="9"/>
       <c r="D36" s="43"/>
       <c r="L36" s="43"/>
       <c r="M36" s="43"/>
     </row>
-    <row r="37" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
     </row>
-    <row r="38" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
     </row>
-    <row r="40" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
     </row>
@@ -1660,17 +1686,17 @@
       <selection pane="topRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.58203125" style="26" customWidth="1"/>
-    <col min="2" max="2" width="32.58203125" style="26" customWidth="1"/>
-    <col min="3" max="3" width="4.58203125" style="41" customWidth="1"/>
-    <col min="4" max="4" width="32.58203125" style="41" customWidth="1"/>
-    <col min="5" max="16" width="12.58203125" style="26" customWidth="1"/>
+    <col min="1" max="1" width="4.59765625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="32.59765625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="4.59765625" style="41" customWidth="1"/>
+    <col min="4" max="4" width="32.59765625" style="41" customWidth="1"/>
+    <col min="5" max="16" width="12.59765625" style="26" customWidth="1"/>
     <col min="17" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -1678,7 +1704,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>33</v>
       </c>
@@ -1686,7 +1712,7 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1694,7 +1720,7 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -1702,7 +1728,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -1710,13 +1736,13 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:16" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" s="10" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
@@ -1726,7 +1752,7 @@
       </c>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
@@ -1750,7 +1776,7 @@
       <c r="O8" s="47"/>
       <c r="P8" s="47"/>
     </row>
-    <row r="9" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
@@ -1796,7 +1822,7 @@
         <v>43891</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="22" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>9</v>
       </c>
@@ -1818,7 +1844,7 @@
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
     </row>
-    <row r="11" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
         <v>11</v>
       </c>
@@ -1840,7 +1866,7 @@
       <c r="O11" s="25"/>
       <c r="P11" s="25"/>
     </row>
-    <row r="12" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="27"/>
       <c r="B12" s="28" t="s">
         <v>13</v>
@@ -1862,7 +1888,7 @@
       <c r="O12" s="30"/>
       <c r="P12" s="30"/>
     </row>
-    <row r="13" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="31"/>
       <c r="B13" s="32" t="s">
         <v>15</v>
@@ -1884,7 +1910,7 @@
       <c r="O13" s="34"/>
       <c r="P13" s="34"/>
     </row>
-    <row r="14" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="31"/>
       <c r="B14" s="32" t="s">
         <v>17</v>
@@ -1906,7 +1932,7 @@
       <c r="O14" s="35"/>
       <c r="P14" s="35"/>
     </row>
-    <row r="15" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
       <c r="B15" s="32" t="s">
         <v>19</v>
@@ -1928,7 +1954,7 @@
       <c r="O15" s="35"/>
       <c r="P15" s="35"/>
     </row>
-    <row r="16" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="31"/>
       <c r="B16" s="32" t="s">
         <v>21</v>
@@ -1950,7 +1976,7 @@
       <c r="O16" s="34"/>
       <c r="P16" s="34"/>
     </row>
-    <row r="17" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="31"/>
       <c r="B17" s="32" t="s">
         <v>23</v>
@@ -1972,7 +1998,7 @@
       <c r="O17" s="35"/>
       <c r="P17" s="35"/>
     </row>
-    <row r="18" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="31"/>
       <c r="B18" s="32" t="s">
         <v>25</v>
@@ -2030,7 +2056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="31"/>
       <c r="B19" s="32" t="s">
         <v>27</v>
@@ -2088,7 +2114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="40" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" s="40" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A20" s="36"/>
       <c r="B20" s="37" t="s">
         <v>29</v>
@@ -2108,7 +2134,7 @@
       <c r="O20" s="39"/>
       <c r="P20" s="39"/>
     </row>
-    <row r="21" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="31"/>
       <c r="B21" s="28" t="s">
         <v>13</v>
@@ -2130,7 +2156,7 @@
       <c r="O21" s="30"/>
       <c r="P21" s="30"/>
     </row>
-    <row r="22" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="31"/>
       <c r="B22" s="32" t="s">
         <v>15</v>
@@ -2152,7 +2178,7 @@
       <c r="O22" s="34"/>
       <c r="P22" s="34"/>
     </row>
-    <row r="23" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="31"/>
       <c r="B23" s="32" t="s">
         <v>17</v>
@@ -2174,7 +2200,7 @@
       <c r="O23" s="35"/>
       <c r="P23" s="35"/>
     </row>
-    <row r="24" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="31"/>
       <c r="B24" s="32" t="s">
         <v>19</v>
@@ -2196,7 +2222,7 @@
       <c r="O24" s="35"/>
       <c r="P24" s="35"/>
     </row>
-    <row r="25" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="31"/>
       <c r="B25" s="32" t="s">
         <v>21</v>
@@ -2218,7 +2244,7 @@
       <c r="O25" s="34"/>
       <c r="P25" s="34"/>
     </row>
-    <row r="26" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="31"/>
       <c r="B26" s="32" t="s">
         <v>23</v>
@@ -2240,7 +2266,7 @@
       <c r="O26" s="35"/>
       <c r="P26" s="35"/>
     </row>
-    <row r="27" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="31"/>
       <c r="B27" s="32" t="s">
         <v>25</v>
@@ -2298,7 +2324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="31"/>
       <c r="B28" s="32" t="s">
         <v>27</v>
@@ -2356,42 +2382,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="42" customFormat="1" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" s="42" customFormat="1" ht="16.2" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
     </row>
-    <row r="33" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
     </row>
-    <row r="34" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
     </row>
-    <row r="35" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
     </row>
-    <row r="36" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:13" s="8" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
       <c r="C36" s="9"/>
       <c r="D36" s="43"/>
       <c r="L36" s="43"/>
       <c r="M36" s="43"/>
     </row>
-    <row r="37" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
     </row>
-    <row r="38" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
     </row>
-    <row r="40" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
     </row>
@@ -2413,17 +2439,17 @@
       <selection pane="topRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.58203125" style="26" customWidth="1"/>
-    <col min="2" max="2" width="32.58203125" style="26" customWidth="1"/>
-    <col min="3" max="3" width="4.58203125" style="41" customWidth="1"/>
-    <col min="4" max="4" width="32.58203125" style="41" customWidth="1"/>
-    <col min="5" max="16" width="12.58203125" style="26" customWidth="1"/>
+    <col min="1" max="1" width="4.59765625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="32.59765625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="4.59765625" style="41" customWidth="1"/>
+    <col min="4" max="4" width="32.59765625" style="41" customWidth="1"/>
+    <col min="5" max="16" width="12.59765625" style="26" customWidth="1"/>
     <col min="17" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -2431,7 +2457,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>35</v>
       </c>
@@ -2439,7 +2465,7 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -2447,7 +2473,7 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -2455,7 +2481,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -2463,13 +2489,13 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:16" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" s="10" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
@@ -2479,7 +2505,7 @@
       </c>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
@@ -2503,7 +2529,7 @@
       <c r="O8" s="47"/>
       <c r="P8" s="47"/>
     </row>
-    <row r="9" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
@@ -2549,7 +2575,7 @@
         <v>43891</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="22" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>38</v>
       </c>
@@ -2571,7 +2597,7 @@
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
     </row>
-    <row r="11" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
         <v>11</v>
       </c>
@@ -2593,7 +2619,7 @@
       <c r="O11" s="25"/>
       <c r="P11" s="25"/>
     </row>
-    <row r="12" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="27"/>
       <c r="B12" s="28" t="s">
         <v>13</v>
@@ -2615,7 +2641,7 @@
       <c r="O12" s="30"/>
       <c r="P12" s="30"/>
     </row>
-    <row r="13" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="31"/>
       <c r="B13" s="32" t="s">
         <v>15</v>
@@ -2637,7 +2663,7 @@
       <c r="O13" s="34"/>
       <c r="P13" s="34"/>
     </row>
-    <row r="14" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="31"/>
       <c r="B14" s="32" t="s">
         <v>17</v>
@@ -2659,7 +2685,7 @@
       <c r="O14" s="35"/>
       <c r="P14" s="35"/>
     </row>
-    <row r="15" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
       <c r="B15" s="32" t="s">
         <v>19</v>
@@ -2681,7 +2707,7 @@
       <c r="O15" s="35"/>
       <c r="P15" s="35"/>
     </row>
-    <row r="16" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="31"/>
       <c r="B16" s="32" t="s">
         <v>21</v>
@@ -2703,7 +2729,7 @@
       <c r="O16" s="34"/>
       <c r="P16" s="34"/>
     </row>
-    <row r="17" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="31"/>
       <c r="B17" s="32" t="s">
         <v>23</v>
@@ -2725,7 +2751,7 @@
       <c r="O17" s="35"/>
       <c r="P17" s="35"/>
     </row>
-    <row r="18" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="31"/>
       <c r="B18" s="32" t="s">
         <v>25</v>
@@ -2783,7 +2809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="31"/>
       <c r="B19" s="32" t="s">
         <v>27</v>
@@ -2841,7 +2867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="40" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" s="40" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A20" s="36"/>
       <c r="B20" s="37" t="s">
         <v>29</v>
@@ -2861,7 +2887,7 @@
       <c r="O20" s="39"/>
       <c r="P20" s="39"/>
     </row>
-    <row r="21" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="31"/>
       <c r="B21" s="28" t="s">
         <v>13</v>
@@ -2883,7 +2909,7 @@
       <c r="O21" s="30"/>
       <c r="P21" s="30"/>
     </row>
-    <row r="22" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="31"/>
       <c r="B22" s="32" t="s">
         <v>15</v>
@@ -2905,7 +2931,7 @@
       <c r="O22" s="34"/>
       <c r="P22" s="34"/>
     </row>
-    <row r="23" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="31"/>
       <c r="B23" s="32" t="s">
         <v>17</v>
@@ -2927,7 +2953,7 @@
       <c r="O23" s="35"/>
       <c r="P23" s="35"/>
     </row>
-    <row r="24" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="31"/>
       <c r="B24" s="32" t="s">
         <v>19</v>
@@ -2949,7 +2975,7 @@
       <c r="O24" s="35"/>
       <c r="P24" s="35"/>
     </row>
-    <row r="25" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="31"/>
       <c r="B25" s="32" t="s">
         <v>21</v>
@@ -2971,7 +2997,7 @@
       <c r="O25" s="34"/>
       <c r="P25" s="34"/>
     </row>
-    <row r="26" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="31"/>
       <c r="B26" s="32" t="s">
         <v>23</v>
@@ -2993,7 +3019,7 @@
       <c r="O26" s="35"/>
       <c r="P26" s="35"/>
     </row>
-    <row r="27" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="31"/>
       <c r="B27" s="32" t="s">
         <v>25</v>
@@ -3051,7 +3077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="31"/>
       <c r="B28" s="32" t="s">
         <v>27</v>
@@ -3109,42 +3135,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="42" customFormat="1" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" s="42" customFormat="1" ht="16.2" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
     </row>
-    <row r="33" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
     </row>
-    <row r="34" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
     </row>
-    <row r="35" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
     </row>
-    <row r="36" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:13" s="8" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
       <c r="C36" s="9"/>
       <c r="D36" s="43"/>
       <c r="L36" s="43"/>
       <c r="M36" s="43"/>
     </row>
-    <row r="37" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
     </row>
-    <row r="38" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
     </row>
-    <row r="40" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
     </row>
@@ -3168,17 +3194,17 @@
       <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.58203125" style="26" customWidth="1"/>
-    <col min="2" max="2" width="32.58203125" style="26" customWidth="1"/>
-    <col min="3" max="3" width="4.58203125" style="41" customWidth="1"/>
-    <col min="4" max="4" width="34.58203125" style="41" customWidth="1"/>
-    <col min="5" max="16" width="12.58203125" style="26" customWidth="1"/>
+    <col min="1" max="1" width="4.59765625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="32.59765625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="4.59765625" style="41" customWidth="1"/>
+    <col min="4" max="4" width="34.59765625" style="41" customWidth="1"/>
+    <col min="5" max="16" width="12.59765625" style="26" customWidth="1"/>
     <col min="17" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -3186,7 +3212,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>40</v>
       </c>
@@ -3194,7 +3220,7 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -3202,7 +3228,7 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -3210,7 +3236,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -3218,13 +3244,13 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:16" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" s="10" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
@@ -3234,7 +3260,7 @@
       </c>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
@@ -3258,7 +3284,7 @@
       <c r="O8" s="47"/>
       <c r="P8" s="47"/>
     </row>
-    <row r="9" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
@@ -3304,7 +3330,7 @@
         <v>43891</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="22" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>61</v>
       </c>
@@ -3326,7 +3352,7 @@
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
     </row>
-    <row r="11" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
         <v>11</v>
       </c>
@@ -3348,7 +3374,7 @@
       <c r="O11" s="25"/>
       <c r="P11" s="25"/>
     </row>
-    <row r="12" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="27"/>
       <c r="B12" s="28" t="s">
         <v>41</v>
@@ -3370,7 +3396,7 @@
       <c r="O12" s="30"/>
       <c r="P12" s="30"/>
     </row>
-    <row r="13" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="31"/>
       <c r="B13" s="32" t="s">
         <v>43</v>
@@ -3392,7 +3418,7 @@
       <c r="O13" s="34"/>
       <c r="P13" s="34"/>
     </row>
-    <row r="14" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="31"/>
       <c r="B14" s="32" t="s">
         <v>45</v>
@@ -3414,7 +3440,7 @@
       <c r="O14" s="35"/>
       <c r="P14" s="35"/>
     </row>
-    <row r="15" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
       <c r="B15" s="32" t="s">
         <v>47</v>
@@ -3436,7 +3462,7 @@
       <c r="O15" s="35"/>
       <c r="P15" s="35"/>
     </row>
-    <row r="16" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="31"/>
       <c r="B16" s="32" t="s">
         <v>49</v>
@@ -3458,7 +3484,7 @@
       <c r="O16" s="34"/>
       <c r="P16" s="34"/>
     </row>
-    <row r="17" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="31"/>
       <c r="B17" s="32" t="s">
         <v>51</v>
@@ -3480,7 +3506,7 @@
       <c r="O17" s="35"/>
       <c r="P17" s="35"/>
     </row>
-    <row r="18" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="31"/>
       <c r="B18" s="32" t="s">
         <v>53</v>
@@ -3538,7 +3564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="31"/>
       <c r="B19" s="32" t="s">
         <v>55</v>
@@ -3596,7 +3622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="31"/>
       <c r="B20" s="32" t="s">
         <v>57</v>
@@ -3654,7 +3680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="31"/>
       <c r="B21" s="32" t="s">
         <v>59</v>
@@ -3712,7 +3738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="40" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" s="40" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A22" s="36"/>
       <c r="B22" s="37" t="s">
         <v>29</v>
@@ -3732,7 +3758,7 @@
       <c r="O22" s="39"/>
       <c r="P22" s="39"/>
     </row>
-    <row r="23" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="31"/>
       <c r="B23" s="28" t="s">
         <v>41</v>
@@ -3754,7 +3780,7 @@
       <c r="O23" s="30"/>
       <c r="P23" s="30"/>
     </row>
-    <row r="24" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="31"/>
       <c r="B24" s="32" t="s">
         <v>43</v>
@@ -3776,7 +3802,7 @@
       <c r="O24" s="34"/>
       <c r="P24" s="34"/>
     </row>
-    <row r="25" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="31"/>
       <c r="B25" s="32" t="s">
         <v>45</v>
@@ -3798,7 +3824,7 @@
       <c r="O25" s="35"/>
       <c r="P25" s="35"/>
     </row>
-    <row r="26" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="31"/>
       <c r="B26" s="32" t="s">
         <v>47</v>
@@ -3820,7 +3846,7 @@
       <c r="O26" s="35"/>
       <c r="P26" s="35"/>
     </row>
-    <row r="27" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="31"/>
       <c r="B27" s="32" t="s">
         <v>49</v>
@@ -3842,7 +3868,7 @@
       <c r="O27" s="34"/>
       <c r="P27" s="34"/>
     </row>
-    <row r="28" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="31"/>
       <c r="B28" s="32" t="s">
         <v>51</v>
@@ -3864,7 +3890,7 @@
       <c r="O28" s="35"/>
       <c r="P28" s="35"/>
     </row>
-    <row r="29" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="31"/>
       <c r="B29" s="32" t="s">
         <v>53</v>
@@ -3922,7 +3948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="31"/>
       <c r="B30" s="32" t="s">
         <v>55</v>
@@ -3980,7 +4006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="31"/>
       <c r="B31" s="32" t="s">
         <v>57</v>
@@ -4038,7 +4064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="31"/>
       <c r="B32" s="32" t="s">
         <v>59</v>
@@ -4096,42 +4122,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:13" s="42" customFormat="1" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="36" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:13" s="42" customFormat="1" ht="16.2" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
     </row>
-    <row r="37" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
     </row>
-    <row r="38" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
     </row>
-    <row r="40" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:13" s="8" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
       <c r="C40" s="9"/>
       <c r="D40" s="43"/>
       <c r="L40" s="43"/>
       <c r="M40" s="43"/>
     </row>
-    <row r="41" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
     </row>
-    <row r="42" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
     </row>
-    <row r="43" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
     </row>
-    <row r="44" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
     </row>
@@ -4153,17 +4179,17 @@
       <selection pane="topRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.58203125" style="26" customWidth="1"/>
-    <col min="2" max="2" width="32.58203125" style="26" customWidth="1"/>
-    <col min="3" max="3" width="4.58203125" style="41" customWidth="1"/>
-    <col min="4" max="4" width="34.58203125" style="41" customWidth="1"/>
-    <col min="5" max="16" width="12.58203125" style="26" customWidth="1"/>
+    <col min="1" max="1" width="4.59765625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="32.59765625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="4.59765625" style="41" customWidth="1"/>
+    <col min="4" max="4" width="34.59765625" style="41" customWidth="1"/>
+    <col min="5" max="16" width="12.59765625" style="26" customWidth="1"/>
     <col min="17" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
@@ -4171,7 +4197,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>64</v>
       </c>
@@ -4179,7 +4205,7 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -4187,7 +4213,7 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -4195,7 +4221,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -4203,13 +4229,13 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:16" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" s="10" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
@@ -4219,7 +4245,7 @@
       </c>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
@@ -4243,7 +4269,7 @@
       <c r="O8" s="47"/>
       <c r="P8" s="47"/>
     </row>
-    <row r="9" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
@@ -4289,7 +4315,7 @@
         <v>43891</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="22" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>65</v>
       </c>
@@ -4311,7 +4337,7 @@
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
     </row>
-    <row r="11" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
         <v>11</v>
       </c>
@@ -4333,7 +4359,7 @@
       <c r="O11" s="25"/>
       <c r="P11" s="25"/>
     </row>
-    <row r="12" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="27"/>
       <c r="B12" s="28" t="s">
         <v>41</v>
@@ -4355,7 +4381,7 @@
       <c r="O12" s="30"/>
       <c r="P12" s="30"/>
     </row>
-    <row r="13" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="31"/>
       <c r="B13" s="32" t="s">
         <v>43</v>
@@ -4377,7 +4403,7 @@
       <c r="O13" s="34"/>
       <c r="P13" s="34"/>
     </row>
-    <row r="14" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="31"/>
       <c r="B14" s="32" t="s">
         <v>45</v>
@@ -4399,7 +4425,7 @@
       <c r="O14" s="35"/>
       <c r="P14" s="35"/>
     </row>
-    <row r="15" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
       <c r="B15" s="32" t="s">
         <v>47</v>
@@ -4421,7 +4447,7 @@
       <c r="O15" s="35"/>
       <c r="P15" s="35"/>
     </row>
-    <row r="16" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="31"/>
       <c r="B16" s="32" t="s">
         <v>49</v>
@@ -4443,7 +4469,7 @@
       <c r="O16" s="34"/>
       <c r="P16" s="34"/>
     </row>
-    <row r="17" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="31"/>
       <c r="B17" s="32" t="s">
         <v>51</v>
@@ -4465,7 +4491,7 @@
       <c r="O17" s="35"/>
       <c r="P17" s="35"/>
     </row>
-    <row r="18" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="31"/>
       <c r="B18" s="32" t="s">
         <v>53</v>
@@ -4523,7 +4549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="31"/>
       <c r="B19" s="32" t="s">
         <v>55</v>
@@ -4581,7 +4607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="31"/>
       <c r="B20" s="32" t="s">
         <v>57</v>
@@ -4639,7 +4665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="31"/>
       <c r="B21" s="32" t="s">
         <v>59</v>
@@ -4697,7 +4723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="40" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" s="40" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A22" s="36"/>
       <c r="B22" s="37" t="s">
         <v>29</v>
@@ -4717,7 +4743,7 @@
       <c r="O22" s="39"/>
       <c r="P22" s="39"/>
     </row>
-    <row r="23" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="31"/>
       <c r="B23" s="28" t="s">
         <v>41</v>
@@ -4739,7 +4765,7 @@
       <c r="O23" s="30"/>
       <c r="P23" s="30"/>
     </row>
-    <row r="24" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="31"/>
       <c r="B24" s="32" t="s">
         <v>43</v>
@@ -4761,7 +4787,7 @@
       <c r="O24" s="34"/>
       <c r="P24" s="34"/>
     </row>
-    <row r="25" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="31"/>
       <c r="B25" s="32" t="s">
         <v>45</v>
@@ -4783,7 +4809,7 @@
       <c r="O25" s="35"/>
       <c r="P25" s="35"/>
     </row>
-    <row r="26" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="31"/>
       <c r="B26" s="32" t="s">
         <v>47</v>
@@ -4805,7 +4831,7 @@
       <c r="O26" s="35"/>
       <c r="P26" s="35"/>
     </row>
-    <row r="27" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="31"/>
       <c r="B27" s="32" t="s">
         <v>49</v>
@@ -4827,7 +4853,7 @@
       <c r="O27" s="34"/>
       <c r="P27" s="34"/>
     </row>
-    <row r="28" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="31"/>
       <c r="B28" s="32" t="s">
         <v>51</v>
@@ -4849,7 +4875,7 @@
       <c r="O28" s="35"/>
       <c r="P28" s="35"/>
     </row>
-    <row r="29" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="31"/>
       <c r="B29" s="32" t="s">
         <v>53</v>
@@ -4907,7 +4933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="31"/>
       <c r="B30" s="32" t="s">
         <v>55</v>
@@ -4965,7 +4991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="31"/>
       <c r="B31" s="32" t="s">
         <v>57</v>
@@ -5023,7 +5049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="31"/>
       <c r="B32" s="32" t="s">
         <v>59</v>
@@ -5081,42 +5107,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:13" s="42" customFormat="1" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="36" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:13" s="42" customFormat="1" ht="16.2" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
     </row>
-    <row r="37" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
     </row>
-    <row r="38" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
     </row>
-    <row r="40" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:13" s="8" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
       <c r="C40" s="9"/>
       <c r="D40" s="43"/>
       <c r="L40" s="43"/>
       <c r="M40" s="43"/>
     </row>
-    <row r="41" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
     </row>
-    <row r="42" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
     </row>
-    <row r="43" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
     </row>
-    <row r="44" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
     </row>
@@ -5133,22 +5159,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{479F49D0-EC80-4E4A-9152-7A9D61551608}">
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F15" sqref="F15"/>
+      <selection pane="topRight" activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.58203125" style="26" customWidth="1"/>
-    <col min="2" max="2" width="32.58203125" style="26" customWidth="1"/>
-    <col min="3" max="3" width="4.58203125" style="41" customWidth="1"/>
-    <col min="4" max="4" width="34.58203125" style="41" customWidth="1"/>
-    <col min="5" max="16" width="12.58203125" style="26" customWidth="1"/>
+    <col min="1" max="1" width="4.59765625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="32.59765625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="4.59765625" style="41" customWidth="1"/>
+    <col min="4" max="4" width="34.59765625" style="41" customWidth="1"/>
+    <col min="5" max="16" width="12.59765625" style="26" customWidth="1"/>
     <col min="17" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>67</v>
       </c>
@@ -5156,7 +5182,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>68</v>
       </c>
@@ -5164,7 +5190,7 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -5172,7 +5198,7 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -5180,7 +5206,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -5188,13 +5214,13 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:16" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" s="10" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
@@ -5204,7 +5230,7 @@
       </c>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
@@ -5228,7 +5254,7 @@
       <c r="O8" s="47"/>
       <c r="P8" s="47"/>
     </row>
-    <row r="9" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
@@ -5274,7 +5300,7 @@
         <v>43891</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="22" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>69</v>
       </c>
@@ -5296,7 +5322,7 @@
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
     </row>
-    <row r="11" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
         <v>11</v>
       </c>
@@ -5318,7 +5344,7 @@
       <c r="O11" s="25"/>
       <c r="P11" s="25"/>
     </row>
-    <row r="12" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="27"/>
       <c r="B12" s="28" t="s">
         <v>41</v>
@@ -5340,7 +5366,7 @@
       <c r="O12" s="30"/>
       <c r="P12" s="30"/>
     </row>
-    <row r="13" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="31"/>
       <c r="B13" s="32" t="s">
         <v>43</v>
@@ -5362,7 +5388,7 @@
       <c r="O13" s="34"/>
       <c r="P13" s="34"/>
     </row>
-    <row r="14" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="31"/>
       <c r="B14" s="32" t="s">
         <v>45</v>
@@ -5384,7 +5410,7 @@
       <c r="O14" s="35"/>
       <c r="P14" s="35"/>
     </row>
-    <row r="15" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
       <c r="B15" s="32" t="s">
         <v>47</v>
@@ -5406,7 +5432,7 @@
       <c r="O15" s="35"/>
       <c r="P15" s="35"/>
     </row>
-    <row r="16" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="31"/>
       <c r="B16" s="32" t="s">
         <v>49</v>
@@ -5428,7 +5454,7 @@
       <c r="O16" s="34"/>
       <c r="P16" s="34"/>
     </row>
-    <row r="17" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="31"/>
       <c r="B17" s="32" t="s">
         <v>51</v>
@@ -5450,7 +5476,7 @@
       <c r="O17" s="35"/>
       <c r="P17" s="35"/>
     </row>
-    <row r="18" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="31"/>
       <c r="B18" s="32" t="s">
         <v>53</v>
@@ -5508,7 +5534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="31"/>
       <c r="B19" s="32" t="s">
         <v>55</v>
@@ -5566,7 +5592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="31"/>
       <c r="B20" s="32" t="s">
         <v>57</v>
@@ -5624,7 +5650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="31"/>
       <c r="B21" s="32" t="s">
         <v>59</v>
@@ -5682,7 +5708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="40" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" s="40" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A22" s="36"/>
       <c r="B22" s="37" t="s">
         <v>29</v>
@@ -5702,7 +5728,7 @@
       <c r="O22" s="39"/>
       <c r="P22" s="39"/>
     </row>
-    <row r="23" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="31"/>
       <c r="B23" s="28" t="s">
         <v>41</v>
@@ -5724,7 +5750,7 @@
       <c r="O23" s="30"/>
       <c r="P23" s="30"/>
     </row>
-    <row r="24" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="31"/>
       <c r="B24" s="32" t="s">
         <v>43</v>
@@ -5746,7 +5772,7 @@
       <c r="O24" s="34"/>
       <c r="P24" s="34"/>
     </row>
-    <row r="25" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="31"/>
       <c r="B25" s="32" t="s">
         <v>45</v>
@@ -5768,7 +5794,7 @@
       <c r="O25" s="35"/>
       <c r="P25" s="35"/>
     </row>
-    <row r="26" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="31"/>
       <c r="B26" s="32" t="s">
         <v>47</v>
@@ -5790,7 +5816,7 @@
       <c r="O26" s="35"/>
       <c r="P26" s="35"/>
     </row>
-    <row r="27" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="31"/>
       <c r="B27" s="32" t="s">
         <v>49</v>
@@ -5812,7 +5838,7 @@
       <c r="O27" s="34"/>
       <c r="P27" s="34"/>
     </row>
-    <row r="28" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="31"/>
       <c r="B28" s="32" t="s">
         <v>51</v>
@@ -5834,7 +5860,7 @@
       <c r="O28" s="35"/>
       <c r="P28" s="35"/>
     </row>
-    <row r="29" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="31"/>
       <c r="B29" s="32" t="s">
         <v>53</v>
@@ -5892,7 +5918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="31"/>
       <c r="B30" s="32" t="s">
         <v>55</v>
@@ -5950,7 +5976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="31"/>
       <c r="B31" s="32" t="s">
         <v>57</v>
@@ -6008,7 +6034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="31"/>
       <c r="B32" s="32" t="s">
         <v>59</v>
@@ -6066,42 +6092,2012 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:13" s="42" customFormat="1" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="36" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:13" s="42" customFormat="1" ht="16.2" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
     </row>
-    <row r="37" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
     </row>
-    <row r="38" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
     </row>
-    <row r="40" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:13" s="8" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
       <c r="C40" s="9"/>
       <c r="D40" s="43"/>
       <c r="L40" s="43"/>
       <c r="M40" s="43"/>
     </row>
-    <row r="41" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
     </row>
-    <row r="42" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
     </row>
-    <row r="43" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
     </row>
-    <row r="44" spans="3:13" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E8:P8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846AC30E-0C4F-4959-A77E-6EEB5F822248}">
+  <dimension ref="A1:P44"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.59765625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="32.59765625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="4.59765625" style="41" customWidth="1"/>
+    <col min="4" max="4" width="34.59765625" style="41" customWidth="1"/>
+    <col min="5" max="16" width="12.59765625" style="26" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:16" s="10" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="47">
+        <v>2020</v>
+      </c>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+    </row>
+    <row r="9" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17">
+        <v>43556</v>
+      </c>
+      <c r="F9" s="17">
+        <v>43586</v>
+      </c>
+      <c r="G9" s="17">
+        <v>43617</v>
+      </c>
+      <c r="H9" s="17">
+        <v>43647</v>
+      </c>
+      <c r="I9" s="17">
+        <v>43678</v>
+      </c>
+      <c r="J9" s="17">
+        <v>43709</v>
+      </c>
+      <c r="K9" s="17">
+        <v>43739</v>
+      </c>
+      <c r="L9" s="17">
+        <v>43770</v>
+      </c>
+      <c r="M9" s="17">
+        <v>43800</v>
+      </c>
+      <c r="N9" s="17">
+        <v>43831</v>
+      </c>
+      <c r="O9" s="17">
+        <v>43862</v>
+      </c>
+      <c r="P9" s="17">
+        <v>43891</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+    </row>
+    <row r="11" spans="1:16" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A11" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+    </row>
+    <row r="12" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="27"/>
+      <c r="B12" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+    </row>
+    <row r="13" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="31"/>
+      <c r="B13" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+    </row>
+    <row r="14" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="31"/>
+      <c r="B14" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+    </row>
+    <row r="15" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="31"/>
+      <c r="B15" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+    </row>
+    <row r="16" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="31"/>
+      <c r="B16" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+    </row>
+    <row r="17" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="31"/>
+      <c r="B17" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+    </row>
+    <row r="18" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="31"/>
+      <c r="B18" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="35">
+        <f>E14-E16</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="35">
+        <f t="shared" ref="F18:P19" si="0">F14-F16</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="31"/>
+      <c r="B19" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="35">
+        <f>E15-E17</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="31"/>
+      <c r="B20" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="46">
+        <f>IF(ISERROR(E18/E14),0,E18/E14)</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="46">
+        <f t="shared" ref="F20:P21" si="1">IF(ISERROR(F18/F14),0,F18/F14)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="31"/>
+      <c r="B21" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="46">
+        <f>IF(ISERROR(E19/E15),0,E19/E15)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="40" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A22" s="36"/>
+      <c r="B22" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+    </row>
+    <row r="23" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="31"/>
+      <c r="B23" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+    </row>
+    <row r="24" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="31"/>
+      <c r="B24" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+    </row>
+    <row r="25" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="31"/>
+      <c r="B25" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+    </row>
+    <row r="26" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="31"/>
+      <c r="B26" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+    </row>
+    <row r="27" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="31"/>
+      <c r="B27" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+    </row>
+    <row r="28" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="31"/>
+      <c r="B28" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+    </row>
+    <row r="29" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="31"/>
+      <c r="B29" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="35">
+        <f>E25-E27</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="35">
+        <f t="shared" ref="F29:P30" si="2">F25-F27</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="31"/>
+      <c r="B30" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="35">
+        <f>E26-E28</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="31"/>
+      <c r="B31" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="46">
+        <f>IF(ISERROR(E29/E25),0,E29/E25)</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="46">
+        <f t="shared" ref="F31:P32" si="3">IF(ISERROR(F29/F25),0,F29/F25)</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="31"/>
+      <c r="B32" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="46">
+        <f>IF(ISERROR(E30/E26),0,E30/E26)</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13" s="42" customFormat="1" ht="16.2" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+    </row>
+    <row r="37" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+    </row>
+    <row r="39" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40" spans="3:13" s="8" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="C40" s="9"/>
+      <c r="D40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43"/>
+    </row>
+    <row r="41" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+    </row>
+    <row r="43" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+    </row>
+    <row r="44" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E8:P8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AC5419-1D6A-4156-91BB-30B571D9A476}">
+  <dimension ref="A1:P44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K23" sqref="K23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.59765625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="32.59765625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="4.59765625" style="41" customWidth="1"/>
+    <col min="4" max="4" width="34.59765625" style="41" customWidth="1"/>
+    <col min="5" max="16" width="12.59765625" style="26" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:16" s="10" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="47">
+        <v>2020</v>
+      </c>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+    </row>
+    <row r="9" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17">
+        <v>43556</v>
+      </c>
+      <c r="F9" s="17">
+        <v>43586</v>
+      </c>
+      <c r="G9" s="17">
+        <v>43617</v>
+      </c>
+      <c r="H9" s="17">
+        <v>43647</v>
+      </c>
+      <c r="I9" s="17">
+        <v>43678</v>
+      </c>
+      <c r="J9" s="17">
+        <v>43709</v>
+      </c>
+      <c r="K9" s="17">
+        <v>43739</v>
+      </c>
+      <c r="L9" s="17">
+        <v>43770</v>
+      </c>
+      <c r="M9" s="17">
+        <v>43800</v>
+      </c>
+      <c r="N9" s="17">
+        <v>43831</v>
+      </c>
+      <c r="O9" s="17">
+        <v>43862</v>
+      </c>
+      <c r="P9" s="17">
+        <v>43891</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+    </row>
+    <row r="11" spans="1:16" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A11" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+    </row>
+    <row r="12" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="27"/>
+      <c r="B12" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+    </row>
+    <row r="13" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="31"/>
+      <c r="B13" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+    </row>
+    <row r="14" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="31"/>
+      <c r="B14" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+    </row>
+    <row r="15" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="31"/>
+      <c r="B15" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+    </row>
+    <row r="16" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="31"/>
+      <c r="B16" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+    </row>
+    <row r="17" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="31"/>
+      <c r="B17" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+    </row>
+    <row r="18" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="31"/>
+      <c r="B18" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="35">
+        <f>E14-E16</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="35">
+        <f t="shared" ref="F18:P19" si="0">F14-F16</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="31"/>
+      <c r="B19" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="35">
+        <f>E15-E17</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="31"/>
+      <c r="B20" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="46">
+        <f>IF(ISERROR(E18/E14),0,E18/E14)</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="46">
+        <f t="shared" ref="F20:P21" si="1">IF(ISERROR(F18/F14),0,F18/F14)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="31"/>
+      <c r="B21" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="46">
+        <f>IF(ISERROR(E19/E15),0,E19/E15)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="40" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A22" s="36"/>
+      <c r="B22" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+    </row>
+    <row r="23" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="31"/>
+      <c r="B23" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+    </row>
+    <row r="24" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="31"/>
+      <c r="B24" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+    </row>
+    <row r="25" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="31"/>
+      <c r="B25" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+    </row>
+    <row r="26" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="31"/>
+      <c r="B26" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+    </row>
+    <row r="27" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="31"/>
+      <c r="B27" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+    </row>
+    <row r="28" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="31"/>
+      <c r="B28" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+    </row>
+    <row r="29" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="31"/>
+      <c r="B29" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="35">
+        <f>E25-E27</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="35">
+        <f t="shared" ref="F29:P30" si="2">F25-F27</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="31"/>
+      <c r="B30" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="35">
+        <f>E26-E28</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="31"/>
+      <c r="B31" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="46">
+        <f>IF(ISERROR(E29/E25),0,E29/E25)</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="46">
+        <f t="shared" ref="F31:P32" si="3">IF(ISERROR(F29/F25),0,F29/F25)</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="31"/>
+      <c r="B32" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="46">
+        <f>IF(ISERROR(E30/E26),0,E30/E26)</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13" s="42" customFormat="1" ht="16.2" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+    </row>
+    <row r="37" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+    </row>
+    <row r="39" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40" spans="3:13" s="8" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="C40" s="9"/>
+      <c r="D40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43"/>
+    </row>
+    <row r="41" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+    </row>
+    <row r="43" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+    </row>
+    <row r="44" spans="3:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
     </row>
